--- a/Data/TC001.xlsx
+++ b/Data/TC001.xlsx
@@ -30,7 +30,7 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>DemoCSR1</t>
+    <t>DemoCSR2</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
